--- a/Planilha_de_planejamento_de_testes.xlsx
+++ b/Planilha_de_planejamento_de_testes.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36129382023.1n\Desktop\Semestre4\TestesDeSoftware\automatizado\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9E0C8-4978-4B3A-BCDA-36FA530FF8EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Produto" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Produto" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,128 +26,175 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
-    <t xml:space="preserve">Ord</t>
+    <t>Ord</t>
   </si>
   <si>
-    <t xml:space="preserve">Email</t>
+    <t>Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Senha</t>
+    <t>Senha</t>
   </si>
   <si>
-    <t xml:space="preserve">Resultado</t>
+    <t>Resultado</t>
   </si>
   <si>
-    <t xml:space="preserve">Funcionalidades</t>
+    <t>Funcionalidades</t>
   </si>
   <si>
-    <t xml:space="preserve">TC001</t>
+    <t>TC001</t>
   </si>
   <si>
-    <t xml:space="preserve">"Informe usuário e senha, os campos não podem ser brancos." (MSG)</t>
+    <t>"Informe usuário e senha, os campos não podem ser brancos." (MSG)</t>
   </si>
   <si>
-    <t xml:space="preserve">Usabilidade</t>
+    <t>Usabilidade</t>
   </si>
   <si>
-    <t xml:space="preserve">TC002</t>
+    <t>TC002</t>
   </si>
   <si>
-    <t xml:space="preserve">teste</t>
+    <t>teste</t>
   </si>
   <si>
-    <t xml:space="preserve">Aspectos UI e UX</t>
+    <t>Aspectos UI e UX</t>
   </si>
   <si>
-    <t xml:space="preserve">"E-mail ou senha inválidos" (MSG)</t>
+    <t>"E-mail ou senha inválidos" (MSG)</t>
   </si>
   <si>
-    <t xml:space="preserve">admin@admin.com</t>
+    <t>admin@admin.com</t>
   </si>
   <si>
-    <t xml:space="preserve">admin@123</t>
+    <t>admin@123</t>
   </si>
   <si>
-    <t xml:space="preserve">Loga no sistema e vai para tela de produtos</t>
+    <t>Loga no sistema e vai para tela de produtos</t>
   </si>
   <si>
-    <t xml:space="preserve">Observações:</t>
+    <t>Observações:</t>
   </si>
   <si>
-    <t xml:space="preserve">Trocar a mensagem de erro: campo "usuário" por "e-mail"</t>
+    <t>Trocar a mensagem de erro: campo "usuário" por "e-mail"</t>
   </si>
   <si>
-    <t xml:space="preserve">Padronizar maiúsculas e minúsculas na tabela de Produtos</t>
+    <t>Padronizar maiúsculas e minúsculas na tabela de Produtos</t>
   </si>
   <si>
-    <t xml:space="preserve">Padronizar idioma em Português na tabela de Produtos</t>
+    <t>Padronizar idioma em Português na tabela de Produtos</t>
   </si>
   <si>
-    <t xml:space="preserve">Descrição</t>
+    <t>Descrição</t>
   </si>
   <si>
-    <t xml:space="preserve">Deve voltar para tela de login ao clicar na opção "Voltar" da barra de menu</t>
+    <t>Deve voltar para tela de login ao clicar na opção "Voltar" da barra de menu</t>
   </si>
   <si>
-    <t xml:space="preserve">Falha</t>
+    <t>Falha</t>
   </si>
   <si>
-    <t xml:space="preserve">Deve trazer na tabela os produtos cadastrados ao ser realizado o login</t>
+    <t>Deve trazer na tabela os produtos cadastrados ao ser realizado o login</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao clicar uma vez no botão "Criar", deve abrir a tela de cadastro dos produtos</t>
+    <t>Suesso</t>
   </si>
   <si>
-    <t xml:space="preserve">Deve fechar a tela de cadastro de produtos ao clicar no botão sair</t>
+    <t>Deve sair da mensagem de erro ao clicar no ícone X</t>
   </si>
   <si>
-    <t xml:space="preserve">Suesso</t>
+    <t>Deve impedir de criar um produto caso algum campo esteja vazio</t>
   </si>
   <si>
-    <t xml:space="preserve">Deve sair da mensagem de erro ao clicar no ícone X</t>
+    <t>Sucesso</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deve fechar a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tela de cadastro de produtos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ao clicar no botão sair</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ao clicar uma vez no botão "Criar", deve abrir a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tela de cadastro dos produtos</t>
+    </r>
+  </si>
+  <si>
+    <t>Ao clicar uma vez no botão "Editar" em um produto, deve abrir a tela de cadastro de produtos com os valores cadastrados populados</t>
+  </si>
+  <si>
+    <t>Ao clicar uma vez no botão "Excluir" em um produto, o produto não deve constar mais na tabela</t>
+  </si>
+  <si>
+    <t>Ao informar as informações corretas para gerar um produto e salvar, o produto deve aparecer na tabela de produtos cadastrados</t>
+  </si>
+  <si>
+    <t>A quantidade de um produto criado deve aparecer na tabela de produtos</t>
+  </si>
+  <si>
+    <t>Fechar a tela de cadastro de produtos ao clicar no botão 'x' na parte superior direita do modal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,118 +219,99 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -337,34 +370,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.8046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.87"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -381,11 +722,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="6"/>
@@ -397,11 +738,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -415,8 +756,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="n">
+    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="6"/>
@@ -427,8 +768,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8" t="n">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -441,8 +782,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="n">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -455,8 +796,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="n">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -469,8 +810,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="n">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -483,17 +824,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="n">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -501,3023 +842,3015 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E187" s="2"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E193" s="2"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E199" s="2"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E201" s="2"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E203" s="2"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E205" s="2"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E206" s="2"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E207" s="2"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E208" s="2"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E209" s="2"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E210" s="2"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E211" s="2"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E213" s="2"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E214" s="2"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E215" s="2"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E217" s="2"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E218" s="2"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E219" s="2"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E220" s="2"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E221" s="2"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E223" s="2"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E224" s="2"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E226" s="2"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E227" s="2"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E229" s="2"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E232" s="2"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E234" s="2"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E235" s="2"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E237" s="2"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E238" s="2"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E240" s="2"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E241" s="2"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E242" s="2"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E243" s="2"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E244" s="2"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E245" s="2"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E246" s="2"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E247" s="2"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E248" s="2"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E249" s="2"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E250" s="2"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E251" s="2"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E252" s="2"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E253" s="2"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E254" s="2"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E255" s="2"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E256" s="2"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E257" s="2"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E258" s="2"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E259" s="2"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E260" s="2"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E261" s="2"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E262" s="2"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E263" s="2"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E264" s="2"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E265" s="2"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E266" s="2"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E267" s="2"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E268" s="2"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E269" s="2"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E270" s="2"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E271" s="2"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E272" s="2"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E273" s="2"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E274" s="2"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E275" s="2"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E276" s="2"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E277" s="2"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E278" s="2"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E279" s="2"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E280" s="2"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E281" s="2"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E282" s="2"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E283" s="2"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E284" s="2"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E285" s="2"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E286" s="2"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E287" s="2"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E288" s="2"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E289" s="2"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E290" s="2"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E291" s="2"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E292" s="2"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E293" s="2"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E294" s="2"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E295" s="2"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E296" s="2"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E297" s="2"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E298" s="2"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E299" s="2"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E300" s="2"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E301" s="2"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E302" s="2"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E303" s="2"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E304" s="2"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E305" s="2"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E306" s="2"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E307" s="2"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E308" s="2"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E309" s="2"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E310" s="2"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E311" s="2"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E312" s="2"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E313" s="2"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E314" s="2"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E315" s="2"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E316" s="2"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E317" s="2"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E318" s="2"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E319" s="2"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E320" s="2"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E321" s="2"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E322" s="2"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E323" s="2"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E324" s="2"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E325" s="2"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E326" s="2"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E327" s="2"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E328" s="2"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E329" s="2"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E330" s="2"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E331" s="2"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E332" s="2"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E333" s="2"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E334" s="2"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E335" s="2"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E336" s="2"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E337" s="2"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E338" s="2"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E339" s="2"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E340" s="2"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E341" s="2"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E342" s="2"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E343" s="2"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E344" s="2"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E345" s="2"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E346" s="2"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E347" s="2"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E348" s="2"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E349" s="2"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E350" s="2"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E351" s="2"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E352" s="2"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E353" s="2"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E354" s="2"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E355" s="2"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E356" s="2"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E357" s="2"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E358" s="2"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E359" s="2"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E360" s="2"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E362" s="2"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E363" s="2"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E364" s="2"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E365" s="2"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E366" s="2"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E367" s="2"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E368" s="2"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E369" s="2"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E370" s="2"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E371" s="2"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E372" s="2"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E373" s="2"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E374" s="2"/>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E375" s="2"/>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E376" s="2"/>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E377" s="2"/>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E378" s="2"/>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E379" s="2"/>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E380" s="2"/>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E381" s="2"/>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E382" s="2"/>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E383" s="2"/>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E384" s="2"/>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E385" s="2"/>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E386" s="2"/>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E387" s="2"/>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E388" s="2"/>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E389" s="2"/>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E390" s="2"/>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E391" s="2"/>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E392" s="2"/>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E393" s="2"/>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E394" s="2"/>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E395" s="2"/>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E396" s="2"/>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E397" s="2"/>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E398" s="2"/>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E399" s="2"/>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E400" s="2"/>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E401" s="2"/>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E402" s="2"/>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E403" s="2"/>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E404" s="2"/>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E405" s="2"/>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E406" s="2"/>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E407" s="2"/>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E408" s="2"/>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E409" s="2"/>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E410" s="2"/>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E411" s="2"/>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E412" s="2"/>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E413" s="2"/>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E414" s="2"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E415" s="2"/>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E416" s="2"/>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E417" s="2"/>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E418" s="2"/>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E419" s="2"/>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E420" s="2"/>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E421" s="2"/>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E422" s="2"/>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E423" s="2"/>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E424" s="2"/>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E425" s="2"/>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E426" s="2"/>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E427" s="2"/>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E428" s="2"/>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E429" s="2"/>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E430" s="2"/>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E431" s="2"/>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E432" s="2"/>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E433" s="2"/>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E434" s="2"/>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E435" s="2"/>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E436" s="2"/>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E437" s="2"/>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E438" s="2"/>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E439" s="2"/>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E440" s="2"/>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E441" s="2"/>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E442" s="2"/>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E443" s="2"/>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E444" s="2"/>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E445" s="2"/>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E446" s="2"/>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E447" s="2"/>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E448" s="2"/>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E449" s="2"/>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E450" s="2"/>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E451" s="2"/>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E452" s="2"/>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E453" s="2"/>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E454" s="2"/>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E455" s="2"/>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E456" s="2"/>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E457" s="2"/>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E458" s="2"/>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E459" s="2"/>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E460" s="2"/>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E461" s="2"/>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E462" s="2"/>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E463" s="2"/>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E464" s="2"/>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E465" s="2"/>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E466" s="2"/>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E467" s="2"/>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E468" s="2"/>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E469" s="2"/>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E470" s="2"/>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E471" s="2"/>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E472" s="2"/>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E473" s="2"/>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E474" s="2"/>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E475" s="2"/>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E476" s="2"/>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E477" s="2"/>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E478" s="2"/>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E479" s="2"/>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E480" s="2"/>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E481" s="2"/>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E482" s="2"/>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E483" s="2"/>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E484" s="2"/>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E485" s="2"/>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E486" s="2"/>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E487" s="2"/>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E488" s="2"/>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E489" s="2"/>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E490" s="2"/>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E491" s="2"/>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E492" s="2"/>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E493" s="2"/>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E494" s="2"/>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E495" s="2"/>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E496" s="2"/>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E497" s="2"/>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E498" s="2"/>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E499" s="2"/>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E500" s="2"/>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E501" s="2"/>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E502" s="2"/>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E503" s="2"/>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E504" s="2"/>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E505" s="2"/>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E506" s="2"/>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E507" s="2"/>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E508" s="2"/>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E509" s="2"/>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E510" s="2"/>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E511" s="2"/>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E512" s="2"/>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E513" s="2"/>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E514" s="2"/>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E515" s="2"/>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E516" s="2"/>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E517" s="2"/>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E518" s="2"/>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E519" s="2"/>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E520" s="2"/>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E521" s="2"/>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E522" s="2"/>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E523" s="2"/>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E524" s="2"/>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E525" s="2"/>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E526" s="2"/>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E527" s="2"/>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E528" s="2"/>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E529" s="2"/>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E530" s="2"/>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E531" s="2"/>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E532" s="2"/>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E533" s="2"/>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E534" s="2"/>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E535" s="2"/>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E536" s="2"/>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E537" s="2"/>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E538" s="2"/>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E539" s="2"/>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E540" s="2"/>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E541" s="2"/>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E542" s="2"/>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E543" s="2"/>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E544" s="2"/>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E545" s="2"/>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E546" s="2"/>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E547" s="2"/>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E548" s="2"/>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E549" s="2"/>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E550" s="2"/>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E551" s="2"/>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E552" s="2"/>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E553" s="2"/>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E554" s="2"/>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E555" s="2"/>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E556" s="2"/>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E557" s="2"/>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E558" s="2"/>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E559" s="2"/>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E560" s="2"/>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E561" s="2"/>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E562" s="2"/>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E563" s="2"/>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E564" s="2"/>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E565" s="2"/>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E566" s="2"/>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E567" s="2"/>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E568" s="2"/>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E569" s="2"/>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E570" s="2"/>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E571" s="2"/>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E572" s="2"/>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E573" s="2"/>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E574" s="2"/>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E575" s="2"/>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E576" s="2"/>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E577" s="2"/>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E578" s="2"/>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E579" s="2"/>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E580" s="2"/>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E581" s="2"/>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E582" s="2"/>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E583" s="2"/>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E584" s="2"/>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E585" s="2"/>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E586" s="2"/>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E587" s="2"/>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E588" s="2"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E589" s="2"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E590" s="2"/>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E591" s="2"/>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E592" s="2"/>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E593" s="2"/>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E594" s="2"/>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E595" s="2"/>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E596" s="2"/>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E597" s="2"/>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E598" s="2"/>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E599" s="2"/>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E600" s="2"/>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E601" s="2"/>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E602" s="2"/>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E603" s="2"/>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E604" s="2"/>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E605" s="2"/>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E606" s="2"/>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E607" s="2"/>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E608" s="2"/>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E609" s="2"/>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E610" s="2"/>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E611" s="2"/>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E612" s="2"/>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E613" s="2"/>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E614" s="2"/>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E615" s="2"/>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E616" s="2"/>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E617" s="2"/>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E618" s="2"/>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E619" s="2"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E620" s="2"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E621" s="2"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E622" s="2"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E623" s="2"/>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E624" s="2"/>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E625" s="2"/>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E626" s="2"/>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E627" s="2"/>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E628" s="2"/>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E629" s="2"/>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E630" s="2"/>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E631" s="2"/>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E632" s="2"/>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E633" s="2"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E634" s="2"/>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E635" s="2"/>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E636" s="2"/>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E637" s="2"/>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E638" s="2"/>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E639" s="2"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E640" s="2"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E641" s="2"/>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E642" s="2"/>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E643" s="2"/>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E644" s="2"/>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E645" s="2"/>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E646" s="2"/>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E647" s="2"/>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E648" s="2"/>
     </row>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E649" s="2"/>
     </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E650" s="2"/>
     </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E651" s="2"/>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E652" s="2"/>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E653" s="2"/>
     </row>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E654" s="2"/>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E655" s="2"/>
     </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E656" s="2"/>
     </row>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E657" s="2"/>
     </row>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E658" s="2"/>
     </row>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E659" s="2"/>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E660" s="2"/>
     </row>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E661" s="2"/>
     </row>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E662" s="2"/>
     </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E663" s="2"/>
     </row>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E664" s="2"/>
     </row>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E665" s="2"/>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E666" s="2"/>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E667" s="2"/>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E668" s="2"/>
     </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E669" s="2"/>
     </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E670" s="2"/>
     </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E671" s="2"/>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E672" s="2"/>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E673" s="2"/>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E674" s="2"/>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E675" s="2"/>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E676" s="2"/>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E677" s="2"/>
     </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E678" s="2"/>
     </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E679" s="2"/>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E680" s="2"/>
     </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E681" s="2"/>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E682" s="2"/>
     </row>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E683" s="2"/>
     </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E684" s="2"/>
     </row>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E685" s="2"/>
     </row>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E686" s="2"/>
     </row>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E687" s="2"/>
     </row>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E688" s="2"/>
     </row>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E689" s="2"/>
     </row>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E690" s="2"/>
     </row>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E691" s="2"/>
     </row>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E692" s="2"/>
     </row>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E693" s="2"/>
     </row>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E694" s="2"/>
     </row>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E695" s="2"/>
     </row>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E696" s="2"/>
     </row>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E697" s="2"/>
     </row>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E698" s="2"/>
     </row>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E699" s="2"/>
     </row>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E700" s="2"/>
     </row>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E701" s="2"/>
     </row>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E702" s="2"/>
     </row>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E703" s="2"/>
     </row>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E704" s="2"/>
     </row>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E705" s="2"/>
     </row>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E706" s="2"/>
     </row>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E707" s="2"/>
     </row>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E708" s="2"/>
     </row>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E709" s="2"/>
     </row>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E710" s="2"/>
     </row>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E711" s="2"/>
     </row>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E712" s="2"/>
     </row>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E713" s="2"/>
     </row>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E714" s="2"/>
     </row>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E715" s="2"/>
     </row>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E716" s="2"/>
     </row>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E717" s="2"/>
     </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E718" s="2"/>
     </row>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E719" s="2"/>
     </row>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E720" s="2"/>
     </row>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E721" s="2"/>
     </row>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E722" s="2"/>
     </row>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E723" s="2"/>
     </row>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E724" s="2"/>
     </row>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E725" s="2"/>
     </row>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E726" s="2"/>
     </row>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E727" s="2"/>
     </row>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E728" s="2"/>
     </row>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E729" s="2"/>
     </row>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E730" s="2"/>
     </row>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E731" s="2"/>
     </row>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E732" s="2"/>
     </row>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E733" s="2"/>
     </row>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E734" s="2"/>
     </row>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E735" s="2"/>
     </row>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E736" s="2"/>
     </row>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E737" s="2"/>
     </row>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E738" s="2"/>
     </row>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E739" s="2"/>
     </row>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E740" s="2"/>
     </row>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E741" s="2"/>
     </row>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E742" s="2"/>
     </row>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E743" s="2"/>
     </row>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E744" s="2"/>
     </row>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E745" s="2"/>
     </row>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E746" s="2"/>
     </row>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E747" s="2"/>
     </row>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E748" s="2"/>
     </row>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E749" s="2"/>
     </row>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E750" s="2"/>
     </row>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E751" s="2"/>
     </row>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E752" s="2"/>
     </row>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E753" s="2"/>
     </row>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E754" s="2"/>
     </row>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E755" s="2"/>
     </row>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E756" s="2"/>
     </row>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E757" s="2"/>
     </row>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E758" s="2"/>
     </row>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E759" s="2"/>
     </row>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E760" s="2"/>
     </row>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E761" s="2"/>
     </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E762" s="2"/>
     </row>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E763" s="2"/>
     </row>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E764" s="2"/>
     </row>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E765" s="2"/>
     </row>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E766" s="2"/>
     </row>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E767" s="2"/>
     </row>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E768" s="2"/>
     </row>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E769" s="2"/>
     </row>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E770" s="2"/>
     </row>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E771" s="2"/>
     </row>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E772" s="2"/>
     </row>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E773" s="2"/>
     </row>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E774" s="2"/>
     </row>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E775" s="2"/>
     </row>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E776" s="2"/>
     </row>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E777" s="2"/>
     </row>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E778" s="2"/>
     </row>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E779" s="2"/>
     </row>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E780" s="2"/>
     </row>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E781" s="2"/>
     </row>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E782" s="2"/>
     </row>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E783" s="2"/>
     </row>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E784" s="2"/>
     </row>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E785" s="2"/>
     </row>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E786" s="2"/>
     </row>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E787" s="2"/>
     </row>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E788" s="2"/>
     </row>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E789" s="2"/>
     </row>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E790" s="2"/>
     </row>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E791" s="2"/>
     </row>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E792" s="2"/>
     </row>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E793" s="2"/>
     </row>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E794" s="2"/>
     </row>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E795" s="2"/>
     </row>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E796" s="2"/>
     </row>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E797" s="2"/>
     </row>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E798" s="2"/>
     </row>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E799" s="2"/>
     </row>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E800" s="2"/>
     </row>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E801" s="2"/>
     </row>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E802" s="2"/>
     </row>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E803" s="2"/>
     </row>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E804" s="2"/>
     </row>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E805" s="2"/>
     </row>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E806" s="2"/>
     </row>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E807" s="2"/>
     </row>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E808" s="2"/>
     </row>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E809" s="2"/>
     </row>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E810" s="2"/>
     </row>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E811" s="2"/>
     </row>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E812" s="2"/>
     </row>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E813" s="2"/>
     </row>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E814" s="2"/>
     </row>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E815" s="2"/>
     </row>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E816" s="2"/>
     </row>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E817" s="2"/>
     </row>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E818" s="2"/>
     </row>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E819" s="2"/>
     </row>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E820" s="2"/>
     </row>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E821" s="2"/>
     </row>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E822" s="2"/>
     </row>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E823" s="2"/>
     </row>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E824" s="2"/>
     </row>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E825" s="2"/>
     </row>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E826" s="2"/>
     </row>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E827" s="2"/>
     </row>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E828" s="2"/>
     </row>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E829" s="2"/>
     </row>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E830" s="2"/>
     </row>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E831" s="2"/>
     </row>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E832" s="2"/>
     </row>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E833" s="2"/>
     </row>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E834" s="2"/>
     </row>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E835" s="2"/>
     </row>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E836" s="2"/>
     </row>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E837" s="2"/>
     </row>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E838" s="2"/>
     </row>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E839" s="2"/>
     </row>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E840" s="2"/>
     </row>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E841" s="2"/>
     </row>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E842" s="2"/>
     </row>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E843" s="2"/>
     </row>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E844" s="2"/>
     </row>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E845" s="2"/>
     </row>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E846" s="2"/>
     </row>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E847" s="2"/>
     </row>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E848" s="2"/>
     </row>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E849" s="2"/>
     </row>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E850" s="2"/>
     </row>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E851" s="2"/>
     </row>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E852" s="2"/>
     </row>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E853" s="2"/>
     </row>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E854" s="2"/>
     </row>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E855" s="2"/>
     </row>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E856" s="2"/>
     </row>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E857" s="2"/>
     </row>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E858" s="2"/>
     </row>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E859" s="2"/>
     </row>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E860" s="2"/>
     </row>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E861" s="2"/>
     </row>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E862" s="2"/>
     </row>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E863" s="2"/>
     </row>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E864" s="2"/>
     </row>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E865" s="2"/>
     </row>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E866" s="2"/>
     </row>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E867" s="2"/>
     </row>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E868" s="2"/>
     </row>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E869" s="2"/>
     </row>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E870" s="2"/>
     </row>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E871" s="2"/>
     </row>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E872" s="2"/>
     </row>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E873" s="2"/>
     </row>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E874" s="2"/>
     </row>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E875" s="2"/>
     </row>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E876" s="2"/>
     </row>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E877" s="2"/>
     </row>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E878" s="2"/>
     </row>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E879" s="2"/>
     </row>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E880" s="2"/>
     </row>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E881" s="2"/>
     </row>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E882" s="2"/>
     </row>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E883" s="2"/>
     </row>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E884" s="2"/>
     </row>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E885" s="2"/>
     </row>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E886" s="2"/>
     </row>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E887" s="2"/>
     </row>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E888" s="2"/>
     </row>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E889" s="2"/>
     </row>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E890" s="2"/>
     </row>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E891" s="2"/>
     </row>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E892" s="2"/>
     </row>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E893" s="2"/>
     </row>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E894" s="2"/>
     </row>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E895" s="2"/>
     </row>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E896" s="2"/>
     </row>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E897" s="2"/>
     </row>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E898" s="2"/>
     </row>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E899" s="2"/>
     </row>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E900" s="2"/>
     </row>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E901" s="2"/>
     </row>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E902" s="2"/>
     </row>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E903" s="2"/>
     </row>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E904" s="2"/>
     </row>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E905" s="2"/>
     </row>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E906" s="2"/>
     </row>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E907" s="2"/>
     </row>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E908" s="2"/>
     </row>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E909" s="2"/>
     </row>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E910" s="2"/>
     </row>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E911" s="2"/>
     </row>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E912" s="2"/>
     </row>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E913" s="2"/>
     </row>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E914" s="2"/>
     </row>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E915" s="2"/>
     </row>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E916" s="2"/>
     </row>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E917" s="2"/>
     </row>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E918" s="2"/>
     </row>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E919" s="2"/>
     </row>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E920" s="2"/>
     </row>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E921" s="2"/>
     </row>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E922" s="2"/>
     </row>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E923" s="2"/>
     </row>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E924" s="2"/>
     </row>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E925" s="2"/>
     </row>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E926" s="2"/>
     </row>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E927" s="2"/>
     </row>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E928" s="2"/>
     </row>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E929" s="2"/>
     </row>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E930" s="2"/>
     </row>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E931" s="2"/>
     </row>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E932" s="2"/>
     </row>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E933" s="2"/>
     </row>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E934" s="2"/>
     </row>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E935" s="2"/>
     </row>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E936" s="2"/>
     </row>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E937" s="2"/>
     </row>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E938" s="2"/>
     </row>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E939" s="2"/>
     </row>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E940" s="2"/>
     </row>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E941" s="2"/>
     </row>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E942" s="2"/>
     </row>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E943" s="2"/>
     </row>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E944" s="2"/>
     </row>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E945" s="2"/>
     </row>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E946" s="2"/>
     </row>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E947" s="2"/>
     </row>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E948" s="2"/>
     </row>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E949" s="2"/>
     </row>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E950" s="2"/>
     </row>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E951" s="2"/>
     </row>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E952" s="2"/>
     </row>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E953" s="2"/>
     </row>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E954" s="2"/>
     </row>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E955" s="2"/>
     </row>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E956" s="2"/>
     </row>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E957" s="2"/>
     </row>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E958" s="2"/>
     </row>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E959" s="2"/>
     </row>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E960" s="2"/>
     </row>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E961" s="2"/>
     </row>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E962" s="2"/>
     </row>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E963" s="2"/>
     </row>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E964" s="2"/>
     </row>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E965" s="2"/>
     </row>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E966" s="2"/>
     </row>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E967" s="2"/>
     </row>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E968" s="2"/>
     </row>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E969" s="2"/>
     </row>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E970" s="2"/>
     </row>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E971" s="2"/>
     </row>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E972" s="2"/>
     </row>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E973" s="2"/>
     </row>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E974" s="2"/>
     </row>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E975" s="2"/>
     </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E976" s="2"/>
     </row>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E977" s="2"/>
     </row>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E978" s="2"/>
     </row>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E979" s="2"/>
     </row>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E980" s="2"/>
     </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E981" s="2"/>
     </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E982" s="2"/>
     </row>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E983" s="2"/>
     </row>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E984" s="2"/>
     </row>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E985" s="2"/>
     </row>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E986" s="2"/>
     </row>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E987" s="2"/>
     </row>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E988" s="2"/>
     </row>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E989" s="2"/>
     </row>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E990" s="2"/>
     </row>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E991" s="2"/>
     </row>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E992" s="2"/>
     </row>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E993" s="2"/>
     </row>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E994" s="2"/>
     </row>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E995" s="2"/>
     </row>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E996" s="2"/>
     </row>
-    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E997" s="2"/>
     </row>
-    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E998" s="2"/>
     </row>
-    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E999" s="2"/>
     </row>
-    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E1000" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.82"/>
+    <col min="3" max="3" width="36.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
+    <row r="2" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="5" t="n">
+    <row r="3" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -3528,3036 +3861,3081 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="n">
+    <row r="6" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12" t="n">
+    <row r="7" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="16">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="12" t="n">
+    <row r="8" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="16">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
+    </row>
+    <row r="10" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="16">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12" t="s">
+    <row r="11" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="16">
+        <v>6</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="12" t="s">
+    </row>
+    <row r="12" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B12" s="16">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="16">
+        <v>8</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B14" s="16">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="16">
+        <v>10</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="16">
+        <v>11</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C187" s="2"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C193" s="2"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C199" s="2"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C201" s="2"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C203" s="2"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C205" s="2"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C206" s="2"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C207" s="2"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C208" s="2"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C209" s="2"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C210" s="2"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C211" s="2"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C213" s="2"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C214" s="2"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C215" s="2"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C217" s="2"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C218" s="2"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C219" s="2"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C220" s="2"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C221" s="2"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C223" s="2"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C224" s="2"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C226" s="2"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C227" s="2"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C229" s="2"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C232" s="2"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C234" s="2"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C235" s="2"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C237" s="2"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C238" s="2"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C240" s="2"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C241" s="2"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C242" s="2"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C243" s="2"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C244" s="2"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C245" s="2"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C246" s="2"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C247" s="2"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C248" s="2"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C249" s="2"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C250" s="2"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C251" s="2"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C252" s="2"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C253" s="2"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C254" s="2"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C255" s="2"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C256" s="2"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C257" s="2"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C258" s="2"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C259" s="2"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C260" s="2"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C261" s="2"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C262" s="2"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C263" s="2"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C264" s="2"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C265" s="2"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C266" s="2"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C267" s="2"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C268" s="2"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C269" s="2"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C270" s="2"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C271" s="2"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C272" s="2"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C273" s="2"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C274" s="2"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C275" s="2"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C276" s="2"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C277" s="2"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C278" s="2"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C279" s="2"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C280" s="2"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C281" s="2"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C282" s="2"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C283" s="2"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C284" s="2"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C285" s="2"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C286" s="2"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C287" s="2"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C288" s="2"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C289" s="2"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C290" s="2"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C291" s="2"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C292" s="2"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C293" s="2"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C294" s="2"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C295" s="2"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C296" s="2"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C297" s="2"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C298" s="2"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C299" s="2"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C300" s="2"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C301" s="2"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C302" s="2"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C303" s="2"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C304" s="2"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C305" s="2"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C306" s="2"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C307" s="2"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C308" s="2"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C309" s="2"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C310" s="2"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C311" s="2"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C312" s="2"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C313" s="2"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C314" s="2"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C315" s="2"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C316" s="2"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C317" s="2"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C318" s="2"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C319" s="2"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C320" s="2"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C321" s="2"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C322" s="2"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C323" s="2"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C324" s="2"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C325" s="2"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C326" s="2"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C327" s="2"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C328" s="2"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C329" s="2"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C330" s="2"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C331" s="2"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C332" s="2"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C333" s="2"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C334" s="2"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C335" s="2"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C336" s="2"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C337" s="2"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C338" s="2"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C339" s="2"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C340" s="2"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C341" s="2"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C342" s="2"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C343" s="2"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C344" s="2"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C345" s="2"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C346" s="2"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C347" s="2"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C348" s="2"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C349" s="2"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C350" s="2"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C351" s="2"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C352" s="2"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C353" s="2"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C354" s="2"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C355" s="2"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C356" s="2"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C357" s="2"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C358" s="2"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C359" s="2"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C360" s="2"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C362" s="2"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C363" s="2"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C364" s="2"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C365" s="2"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C366" s="2"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C367" s="2"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C368" s="2"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C369" s="2"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C370" s="2"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C371" s="2"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C372" s="2"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C373" s="2"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C374" s="2"/>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C375" s="2"/>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C376" s="2"/>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C377" s="2"/>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C378" s="2"/>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C379" s="2"/>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C380" s="2"/>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C381" s="2"/>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C382" s="2"/>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C383" s="2"/>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C384" s="2"/>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C385" s="2"/>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C386" s="2"/>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C387" s="2"/>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C388" s="2"/>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C389" s="2"/>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C390" s="2"/>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C391" s="2"/>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C392" s="2"/>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C393" s="2"/>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C394" s="2"/>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C395" s="2"/>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C396" s="2"/>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C397" s="2"/>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C398" s="2"/>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C399" s="2"/>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C400" s="2"/>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C401" s="2"/>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C402" s="2"/>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C403" s="2"/>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C404" s="2"/>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C405" s="2"/>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C406" s="2"/>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C407" s="2"/>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C408" s="2"/>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C409" s="2"/>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C410" s="2"/>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C411" s="2"/>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C412" s="2"/>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C413" s="2"/>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C414" s="2"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C415" s="2"/>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C416" s="2"/>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C417" s="2"/>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C418" s="2"/>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C419" s="2"/>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C420" s="2"/>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C421" s="2"/>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C422" s="2"/>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C423" s="2"/>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C424" s="2"/>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C425" s="2"/>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C426" s="2"/>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C427" s="2"/>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C428" s="2"/>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C429" s="2"/>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C430" s="2"/>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C431" s="2"/>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C432" s="2"/>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C433" s="2"/>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C434" s="2"/>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C435" s="2"/>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C436" s="2"/>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C437" s="2"/>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C438" s="2"/>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C439" s="2"/>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C440" s="2"/>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C441" s="2"/>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C442" s="2"/>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C443" s="2"/>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C444" s="2"/>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C445" s="2"/>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C446" s="2"/>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C447" s="2"/>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C448" s="2"/>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C449" s="2"/>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C450" s="2"/>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C451" s="2"/>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C452" s="2"/>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C453" s="2"/>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C454" s="2"/>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C455" s="2"/>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C456" s="2"/>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C457" s="2"/>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C458" s="2"/>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C459" s="2"/>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C460" s="2"/>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C461" s="2"/>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C462" s="2"/>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C463" s="2"/>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C464" s="2"/>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C465" s="2"/>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C466" s="2"/>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C467" s="2"/>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C468" s="2"/>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C469" s="2"/>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C470" s="2"/>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C471" s="2"/>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C472" s="2"/>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C473" s="2"/>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C474" s="2"/>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C475" s="2"/>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C476" s="2"/>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C477" s="2"/>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C478" s="2"/>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C479" s="2"/>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C480" s="2"/>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C481" s="2"/>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C482" s="2"/>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C483" s="2"/>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C484" s="2"/>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C485" s="2"/>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C486" s="2"/>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C487" s="2"/>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C488" s="2"/>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C489" s="2"/>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C490" s="2"/>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C491" s="2"/>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C492" s="2"/>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C493" s="2"/>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C494" s="2"/>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C495" s="2"/>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C496" s="2"/>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C497" s="2"/>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C498" s="2"/>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C499" s="2"/>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C500" s="2"/>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C501" s="2"/>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C502" s="2"/>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C503" s="2"/>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C504" s="2"/>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C505" s="2"/>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C506" s="2"/>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C507" s="2"/>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C508" s="2"/>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C509" s="2"/>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C510" s="2"/>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C511" s="2"/>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C512" s="2"/>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C513" s="2"/>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C514" s="2"/>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C515" s="2"/>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C516" s="2"/>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C517" s="2"/>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C518" s="2"/>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C519" s="2"/>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C520" s="2"/>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C521" s="2"/>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C522" s="2"/>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C523" s="2"/>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C524" s="2"/>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C525" s="2"/>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C526" s="2"/>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C527" s="2"/>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C528" s="2"/>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C529" s="2"/>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C530" s="2"/>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C531" s="2"/>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C532" s="2"/>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C533" s="2"/>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C534" s="2"/>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C535" s="2"/>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C536" s="2"/>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C537" s="2"/>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C538" s="2"/>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C539" s="2"/>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C540" s="2"/>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C541" s="2"/>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C542" s="2"/>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C543" s="2"/>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C544" s="2"/>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C545" s="2"/>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C546" s="2"/>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C547" s="2"/>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C548" s="2"/>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C549" s="2"/>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C550" s="2"/>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C551" s="2"/>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C552" s="2"/>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C553" s="2"/>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C554" s="2"/>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C555" s="2"/>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C556" s="2"/>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C557" s="2"/>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C558" s="2"/>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C559" s="2"/>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C560" s="2"/>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C561" s="2"/>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C562" s="2"/>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C563" s="2"/>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C564" s="2"/>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C565" s="2"/>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C566" s="2"/>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C567" s="2"/>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C568" s="2"/>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C569" s="2"/>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C570" s="2"/>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C571" s="2"/>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C572" s="2"/>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C573" s="2"/>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C574" s="2"/>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C575" s="2"/>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C576" s="2"/>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C577" s="2"/>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C578" s="2"/>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C579" s="2"/>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C580" s="2"/>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C581" s="2"/>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C582" s="2"/>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C583" s="2"/>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C584" s="2"/>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C585" s="2"/>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C586" s="2"/>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C587" s="2"/>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C588" s="2"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C589" s="2"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C590" s="2"/>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C591" s="2"/>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C592" s="2"/>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C593" s="2"/>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C594" s="2"/>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C595" s="2"/>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C596" s="2"/>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C597" s="2"/>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C598" s="2"/>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C599" s="2"/>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C600" s="2"/>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C601" s="2"/>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C602" s="2"/>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C603" s="2"/>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C604" s="2"/>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C605" s="2"/>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C606" s="2"/>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C607" s="2"/>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C608" s="2"/>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C609" s="2"/>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C610" s="2"/>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C611" s="2"/>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C612" s="2"/>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C613" s="2"/>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C614" s="2"/>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C615" s="2"/>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C616" s="2"/>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C617" s="2"/>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C618" s="2"/>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C619" s="2"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C620" s="2"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C621" s="2"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C622" s="2"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C623" s="2"/>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C624" s="2"/>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C625" s="2"/>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C626" s="2"/>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C627" s="2"/>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C628" s="2"/>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C629" s="2"/>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C630" s="2"/>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C631" s="2"/>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C632" s="2"/>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C633" s="2"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C634" s="2"/>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C635" s="2"/>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C636" s="2"/>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C637" s="2"/>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C638" s="2"/>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C639" s="2"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C640" s="2"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C641" s="2"/>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C642" s="2"/>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C643" s="2"/>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C644" s="2"/>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C645" s="2"/>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C646" s="2"/>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C647" s="2"/>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C648" s="2"/>
     </row>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C649" s="2"/>
     </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C650" s="2"/>
     </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C651" s="2"/>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C652" s="2"/>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C653" s="2"/>
     </row>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C654" s="2"/>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C655" s="2"/>
     </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C656" s="2"/>
     </row>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C657" s="2"/>
     </row>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C658" s="2"/>
     </row>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C659" s="2"/>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C660" s="2"/>
     </row>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C661" s="2"/>
     </row>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C662" s="2"/>
     </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C663" s="2"/>
     </row>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C664" s="2"/>
     </row>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C665" s="2"/>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C666" s="2"/>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C667" s="2"/>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C668" s="2"/>
     </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C669" s="2"/>
     </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C670" s="2"/>
     </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C671" s="2"/>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C672" s="2"/>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C673" s="2"/>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C674" s="2"/>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C675" s="2"/>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C676" s="2"/>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C677" s="2"/>
     </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C678" s="2"/>
     </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C679" s="2"/>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C680" s="2"/>
     </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C681" s="2"/>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C682" s="2"/>
     </row>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C683" s="2"/>
     </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C684" s="2"/>
     </row>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C685" s="2"/>
     </row>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C686" s="2"/>
     </row>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C687" s="2"/>
     </row>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C688" s="2"/>
     </row>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C689" s="2"/>
     </row>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C690" s="2"/>
     </row>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C691" s="2"/>
     </row>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C692" s="2"/>
     </row>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C693" s="2"/>
     </row>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C694" s="2"/>
     </row>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C695" s="2"/>
     </row>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C696" s="2"/>
     </row>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C697" s="2"/>
     </row>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C698" s="2"/>
     </row>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C699" s="2"/>
     </row>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C700" s="2"/>
     </row>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C701" s="2"/>
     </row>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C702" s="2"/>
     </row>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C703" s="2"/>
     </row>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C704" s="2"/>
     </row>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C705" s="2"/>
     </row>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C706" s="2"/>
     </row>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C707" s="2"/>
     </row>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C708" s="2"/>
     </row>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C709" s="2"/>
     </row>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C710" s="2"/>
     </row>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C711" s="2"/>
     </row>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C712" s="2"/>
     </row>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C713" s="2"/>
     </row>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C714" s="2"/>
     </row>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C715" s="2"/>
     </row>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C716" s="2"/>
     </row>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C717" s="2"/>
     </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C718" s="2"/>
     </row>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C719" s="2"/>
     </row>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C720" s="2"/>
     </row>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C721" s="2"/>
     </row>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C722" s="2"/>
     </row>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C723" s="2"/>
     </row>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C724" s="2"/>
     </row>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C725" s="2"/>
     </row>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C726" s="2"/>
     </row>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C727" s="2"/>
     </row>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C728" s="2"/>
     </row>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C729" s="2"/>
     </row>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C730" s="2"/>
     </row>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C731" s="2"/>
     </row>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C732" s="2"/>
     </row>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C733" s="2"/>
     </row>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C734" s="2"/>
     </row>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C735" s="2"/>
     </row>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C736" s="2"/>
     </row>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C737" s="2"/>
     </row>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C738" s="2"/>
     </row>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C739" s="2"/>
     </row>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C740" s="2"/>
     </row>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C741" s="2"/>
     </row>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C742" s="2"/>
     </row>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C743" s="2"/>
     </row>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C744" s="2"/>
     </row>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C745" s="2"/>
     </row>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C746" s="2"/>
     </row>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C747" s="2"/>
     </row>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C748" s="2"/>
     </row>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C749" s="2"/>
     </row>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C750" s="2"/>
     </row>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C751" s="2"/>
     </row>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C752" s="2"/>
     </row>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C753" s="2"/>
     </row>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C754" s="2"/>
     </row>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C755" s="2"/>
     </row>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C756" s="2"/>
     </row>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C757" s="2"/>
     </row>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C758" s="2"/>
     </row>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C759" s="2"/>
     </row>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C760" s="2"/>
     </row>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C761" s="2"/>
     </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C762" s="2"/>
     </row>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C763" s="2"/>
     </row>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C764" s="2"/>
     </row>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C765" s="2"/>
     </row>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C766" s="2"/>
     </row>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C767" s="2"/>
     </row>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C768" s="2"/>
     </row>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C769" s="2"/>
     </row>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C770" s="2"/>
     </row>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C771" s="2"/>
     </row>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C772" s="2"/>
     </row>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C773" s="2"/>
     </row>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C774" s="2"/>
     </row>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C775" s="2"/>
     </row>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C776" s="2"/>
     </row>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C777" s="2"/>
     </row>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C778" s="2"/>
     </row>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C779" s="2"/>
     </row>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C780" s="2"/>
     </row>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C781" s="2"/>
     </row>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C782" s="2"/>
     </row>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C783" s="2"/>
     </row>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C784" s="2"/>
     </row>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C785" s="2"/>
     </row>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C786" s="2"/>
     </row>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C787" s="2"/>
     </row>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C788" s="2"/>
     </row>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C789" s="2"/>
     </row>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C790" s="2"/>
     </row>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C791" s="2"/>
     </row>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C792" s="2"/>
     </row>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C793" s="2"/>
     </row>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C794" s="2"/>
     </row>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C795" s="2"/>
     </row>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C796" s="2"/>
     </row>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C797" s="2"/>
     </row>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C798" s="2"/>
     </row>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C799" s="2"/>
     </row>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C800" s="2"/>
     </row>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C801" s="2"/>
     </row>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C802" s="2"/>
     </row>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C803" s="2"/>
     </row>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C804" s="2"/>
     </row>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C805" s="2"/>
     </row>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C806" s="2"/>
     </row>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C807" s="2"/>
     </row>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C808" s="2"/>
     </row>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C809" s="2"/>
     </row>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C810" s="2"/>
     </row>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C811" s="2"/>
     </row>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C812" s="2"/>
     </row>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C813" s="2"/>
     </row>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C814" s="2"/>
     </row>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C815" s="2"/>
     </row>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C816" s="2"/>
     </row>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C817" s="2"/>
     </row>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C818" s="2"/>
     </row>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C819" s="2"/>
     </row>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C820" s="2"/>
     </row>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C821" s="2"/>
     </row>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C822" s="2"/>
     </row>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C823" s="2"/>
     </row>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C824" s="2"/>
     </row>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C825" s="2"/>
     </row>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C826" s="2"/>
     </row>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C827" s="2"/>
     </row>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C828" s="2"/>
     </row>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C829" s="2"/>
     </row>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C830" s="2"/>
     </row>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C831" s="2"/>
     </row>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C832" s="2"/>
     </row>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C833" s="2"/>
     </row>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C834" s="2"/>
     </row>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C835" s="2"/>
     </row>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C836" s="2"/>
     </row>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C837" s="2"/>
     </row>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C838" s="2"/>
     </row>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C839" s="2"/>
     </row>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C840" s="2"/>
     </row>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C841" s="2"/>
     </row>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C842" s="2"/>
     </row>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C843" s="2"/>
     </row>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C844" s="2"/>
     </row>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C845" s="2"/>
     </row>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C846" s="2"/>
     </row>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C847" s="2"/>
     </row>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C848" s="2"/>
     </row>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C849" s="2"/>
     </row>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C850" s="2"/>
     </row>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C851" s="2"/>
     </row>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C852" s="2"/>
     </row>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C853" s="2"/>
     </row>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C854" s="2"/>
     </row>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C855" s="2"/>
     </row>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C856" s="2"/>
     </row>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C857" s="2"/>
     </row>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C858" s="2"/>
     </row>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C859" s="2"/>
     </row>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C860" s="2"/>
     </row>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C861" s="2"/>
     </row>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C862" s="2"/>
     </row>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C863" s="2"/>
     </row>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C864" s="2"/>
     </row>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C865" s="2"/>
     </row>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C866" s="2"/>
     </row>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C867" s="2"/>
     </row>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C868" s="2"/>
     </row>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C869" s="2"/>
     </row>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C870" s="2"/>
     </row>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C871" s="2"/>
     </row>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C872" s="2"/>
     </row>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C873" s="2"/>
     </row>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C874" s="2"/>
     </row>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C875" s="2"/>
     </row>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C876" s="2"/>
     </row>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C877" s="2"/>
     </row>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C878" s="2"/>
     </row>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C879" s="2"/>
     </row>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C880" s="2"/>
     </row>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C881" s="2"/>
     </row>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C882" s="2"/>
     </row>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C883" s="2"/>
     </row>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C884" s="2"/>
     </row>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C885" s="2"/>
     </row>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C886" s="2"/>
     </row>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C887" s="2"/>
     </row>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C888" s="2"/>
     </row>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C889" s="2"/>
     </row>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C890" s="2"/>
     </row>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C891" s="2"/>
     </row>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C892" s="2"/>
     </row>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C893" s="2"/>
     </row>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C894" s="2"/>
     </row>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C895" s="2"/>
     </row>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C896" s="2"/>
     </row>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C897" s="2"/>
     </row>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C898" s="2"/>
     </row>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C899" s="2"/>
     </row>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C900" s="2"/>
     </row>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C901" s="2"/>
     </row>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C902" s="2"/>
     </row>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C903" s="2"/>
     </row>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C904" s="2"/>
     </row>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C905" s="2"/>
     </row>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C906" s="2"/>
     </row>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C907" s="2"/>
     </row>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C908" s="2"/>
     </row>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C909" s="2"/>
     </row>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C910" s="2"/>
     </row>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C911" s="2"/>
     </row>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C912" s="2"/>
     </row>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C913" s="2"/>
     </row>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C914" s="2"/>
     </row>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C915" s="2"/>
     </row>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C916" s="2"/>
     </row>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C917" s="2"/>
     </row>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C918" s="2"/>
     </row>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C919" s="2"/>
     </row>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C920" s="2"/>
     </row>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C921" s="2"/>
     </row>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C922" s="2"/>
     </row>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C923" s="2"/>
     </row>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C924" s="2"/>
     </row>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C925" s="2"/>
     </row>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C926" s="2"/>
     </row>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C927" s="2"/>
     </row>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C928" s="2"/>
     </row>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C929" s="2"/>
     </row>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C930" s="2"/>
     </row>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C931" s="2"/>
     </row>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C932" s="2"/>
     </row>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C933" s="2"/>
     </row>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C934" s="2"/>
     </row>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C935" s="2"/>
     </row>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C936" s="2"/>
     </row>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C937" s="2"/>
     </row>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C938" s="2"/>
     </row>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C939" s="2"/>
     </row>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C940" s="2"/>
     </row>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C941" s="2"/>
     </row>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C942" s="2"/>
     </row>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C943" s="2"/>
     </row>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C944" s="2"/>
     </row>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C945" s="2"/>
     </row>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C946" s="2"/>
     </row>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C947" s="2"/>
     </row>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C948" s="2"/>
     </row>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C949" s="2"/>
     </row>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C950" s="2"/>
     </row>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C951" s="2"/>
     </row>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C952" s="2"/>
     </row>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C953" s="2"/>
     </row>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C954" s="2"/>
     </row>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C955" s="2"/>
     </row>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C956" s="2"/>
     </row>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C957" s="2"/>
     </row>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C958" s="2"/>
     </row>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C959" s="2"/>
     </row>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C960" s="2"/>
     </row>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C961" s="2"/>
     </row>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C962" s="2"/>
     </row>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C963" s="2"/>
     </row>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C964" s="2"/>
     </row>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C965" s="2"/>
     </row>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C966" s="2"/>
     </row>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C967" s="2"/>
     </row>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C968" s="2"/>
     </row>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C969" s="2"/>
     </row>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C970" s="2"/>
     </row>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C971" s="2"/>
     </row>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C972" s="2"/>
     </row>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C973" s="2"/>
     </row>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C974" s="2"/>
     </row>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C975" s="2"/>
     </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C976" s="2"/>
     </row>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C977" s="2"/>
     </row>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C978" s="2"/>
     </row>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C979" s="2"/>
     </row>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C980" s="2"/>
     </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C981" s="2"/>
     </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C982" s="2"/>
     </row>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C983" s="2"/>
     </row>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C984" s="2"/>
     </row>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C985" s="2"/>
     </row>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C986" s="2"/>
     </row>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C987" s="2"/>
     </row>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C988" s="2"/>
     </row>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C989" s="2"/>
     </row>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C990" s="2"/>
     </row>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C991" s="2"/>
     </row>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C992" s="2"/>
     </row>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C993" s="2"/>
     </row>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C994" s="2"/>
     </row>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C995" s="2"/>
     </row>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C996" s="2"/>
     </row>
-    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C997" s="2"/>
     </row>
-    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C998" s="2"/>
     </row>
-    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C999" s="2"/>
     </row>
-    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C1000" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>